--- a/data/trans_orig/P1434-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P1434-Dificultad-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>31471</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22220</v>
+        <v>21757</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42552</v>
+        <v>43616</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05387636243049689</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03803806903693189</v>
+        <v>0.03724591167040914</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07284508876175597</v>
+        <v>0.07466667911644079</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>552670</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>541589</v>
+        <v>540525</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>561921</v>
+        <v>562384</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9461236375695031</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9271549112382436</v>
+        <v>0.9253333208835595</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9619619309630679</v>
+        <v>0.9627540883295909</v>
       </c>
     </row>
     <row r="6">
@@ -715,19 +715,19 @@
         <v>32643</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22783</v>
+        <v>22478</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44456</v>
+        <v>45021</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03028431423392132</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02113696164280074</v>
+        <v>0.02085377471535014</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04124322765934684</v>
+        <v>0.04176791801031228</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>1045251</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1033438</v>
+        <v>1032873</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1055111</v>
+        <v>1055416</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9697156857660787</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9587567723406532</v>
+        <v>0.9582320819896877</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9788630383571995</v>
+        <v>0.9791462252846497</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>24389</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15265</v>
+        <v>15510</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35992</v>
+        <v>34573</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0217453369923185</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01360971544348384</v>
+        <v>0.01382811113804474</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03208992125868049</v>
+        <v>0.03082519953997302</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>1097205</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1085602</v>
+        <v>1087021</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1106329</v>
+        <v>1106084</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9782546630076815</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9679100787413195</v>
+        <v>0.9691748004600264</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9863902845565161</v>
+        <v>0.9861718888619552</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>14192</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7698</v>
+        <v>8256</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22429</v>
+        <v>24432</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03173477419602295</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01721453282058739</v>
+        <v>0.01846136222709576</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05015369370021699</v>
+        <v>0.0546334926206926</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>433008</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>424771</v>
+        <v>422768</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>439502</v>
+        <v>438944</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.968265225803977</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9498463062997831</v>
+        <v>0.9453665073793073</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9827854671794126</v>
+        <v>0.9815386377729043</v>
       </c>
     </row>
     <row r="15">
@@ -988,19 +988,19 @@
         <v>102696</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>85277</v>
+        <v>84444</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>124875</v>
+        <v>124510</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03178624071383288</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02639462235658873</v>
+        <v>0.0261370607796271</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03865098188869072</v>
+        <v>0.03853794382858407</v>
       </c>
     </row>
     <row r="17">
@@ -1017,19 +1017,19 @@
         <v>3128133</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3105954</v>
+        <v>3106319</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3145552</v>
+        <v>3146385</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9682137592861672</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9613490181113094</v>
+        <v>0.961462056171416</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9736053776434113</v>
+        <v>0.9738629392203729</v>
       </c>
     </row>
     <row r="18">
@@ -1197,19 +1197,19 @@
         <v>27946</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18841</v>
+        <v>18444</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41060</v>
+        <v>40959</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02677011844959166</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01804792516902423</v>
+        <v>0.01766805986656031</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03933173961375562</v>
+        <v>0.0392356383146492</v>
       </c>
     </row>
     <row r="5">
@@ -1226,19 +1226,19 @@
         <v>1015989</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1002875</v>
+        <v>1002976</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1025094</v>
+        <v>1025491</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9732298815504083</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9606682603862444</v>
+        <v>0.9607643616853507</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9819520748309758</v>
+        <v>0.9823319401334397</v>
       </c>
     </row>
     <row r="6">
@@ -1288,19 +1288,19 @@
         <v>34884</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23884</v>
+        <v>23053</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>47888</v>
+        <v>47776</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03570300401265022</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02444449937609127</v>
+        <v>0.02359360789482976</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0490115609191912</v>
+        <v>0.04889728809908854</v>
       </c>
     </row>
     <row r="8">
@@ -1317,19 +1317,19 @@
         <v>942189</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>929185</v>
+        <v>929297</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>953189</v>
+        <v>954020</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9642969959873497</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9509884390808089</v>
+        <v>0.9511027119009114</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9755555006239087</v>
+        <v>0.9764063921051703</v>
       </c>
     </row>
     <row r="9">
@@ -1379,19 +1379,19 @@
         <v>37474</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25479</v>
+        <v>25863</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>51584</v>
+        <v>51039</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04233785804533106</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02878559099863675</v>
+        <v>0.02921963747412836</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05827889141398831</v>
+        <v>0.05766413960086039</v>
       </c>
     </row>
     <row r="11">
@@ -1408,19 +1408,19 @@
         <v>847641</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>833531</v>
+        <v>834076</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>859636</v>
+        <v>859252</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9576621419546689</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9417211085860118</v>
+        <v>0.9423358603991394</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9712144090013634</v>
+        <v>0.9707803625258716</v>
       </c>
     </row>
     <row r="12">
@@ -1470,19 +1470,19 @@
         <v>23006</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14403</v>
+        <v>14260</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34512</v>
+        <v>33612</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04593552069496923</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0287584589225549</v>
+        <v>0.02847208347122476</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06890947805010651</v>
+        <v>0.06711197326187374</v>
       </c>
     </row>
     <row r="14">
@@ -1499,19 +1499,19 @@
         <v>477825</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>466319</v>
+        <v>467219</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>486428</v>
+        <v>486571</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9540644793050308</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9310905219498934</v>
+        <v>0.932888026738126</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9712415410774451</v>
+        <v>0.9715279165287752</v>
       </c>
     </row>
     <row r="15">
@@ -1561,19 +1561,19 @@
         <v>123311</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>100942</v>
+        <v>103634</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>147331</v>
+        <v>149285</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03619377152758599</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02962810758611618</v>
+        <v>0.03041827706466978</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04324431299910664</v>
+        <v>0.04381783102247949</v>
       </c>
     </row>
     <row r="17">
@@ -1590,19 +1590,19 @@
         <v>3283643</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3259623</v>
+        <v>3257669</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3306012</v>
+        <v>3303320</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.963806228472414</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9567556870008933</v>
+        <v>0.9561821689775205</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9703718924138838</v>
+        <v>0.9695817229353302</v>
       </c>
     </row>
     <row r="18">
@@ -1770,19 +1770,19 @@
         <v>34241</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24209</v>
+        <v>24740</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45528</v>
+        <v>48399</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03035514212447031</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02146224143727401</v>
+        <v>0.02193307850639854</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04036207643110071</v>
+        <v>0.04290715685421257</v>
       </c>
     </row>
     <row r="5">
@@ -1799,19 +1799,19 @@
         <v>1093756</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1082469</v>
+        <v>1079598</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1103788</v>
+        <v>1103257</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9696448578755297</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9596379235688993</v>
+        <v>0.9570928431457876</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.978537758562726</v>
+        <v>0.9780669214936015</v>
       </c>
     </row>
     <row r="6">
@@ -1861,19 +1861,19 @@
         <v>26989</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18705</v>
+        <v>17812</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38041</v>
+        <v>38480</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02969668022991592</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02058137154232777</v>
+        <v>0.01959878979696738</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04185761595649598</v>
+        <v>0.04234010728368764</v>
       </c>
     </row>
     <row r="8">
@@ -1890,19 +1890,19 @@
         <v>881836</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>870784</v>
+        <v>870345</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>890120</v>
+        <v>891013</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9703033197700841</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.958142384043504</v>
+        <v>0.9576598927163124</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9794186284576724</v>
+        <v>0.9804012102030327</v>
       </c>
     </row>
     <row r="9">
@@ -1952,19 +1952,19 @@
         <v>30273</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21126</v>
+        <v>21357</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41668</v>
+        <v>42928</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03674957192206019</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02564607880312369</v>
+        <v>0.02592625142625386</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05058242433202421</v>
+        <v>0.0521129181081332</v>
       </c>
     </row>
     <row r="11">
@@ -1981,19 +1981,19 @@
         <v>793486</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>782091</v>
+        <v>780831</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>802633</v>
+        <v>802402</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9632504280779398</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9494175756679756</v>
+        <v>0.9478870818918668</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9743539211968764</v>
+        <v>0.9740737485737461</v>
       </c>
     </row>
     <row r="12">
@@ -2043,19 +2043,19 @@
         <v>13970</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8069</v>
+        <v>8204</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23288</v>
+        <v>23272</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02756975994340671</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01592410526694171</v>
+        <v>0.01619141563523888</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04595972831696814</v>
+        <v>0.04592904191594187</v>
       </c>
     </row>
     <row r="14">
@@ -2072,19 +2072,19 @@
         <v>492731</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>483413</v>
+        <v>483429</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>498632</v>
+        <v>498497</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9724302400565933</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9540402716830318</v>
+        <v>0.9540709580840582</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9840758947330585</v>
+        <v>0.9838085843647612</v>
       </c>
     </row>
     <row r="15">
@@ -2134,19 +2134,19 @@
         <v>105472</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>86652</v>
+        <v>86895</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>126988</v>
+        <v>125966</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03132259572617768</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0257335397569799</v>
+        <v>0.02580557454161558</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03771226618699852</v>
+        <v>0.03740893523570995</v>
       </c>
     </row>
     <row r="17">
@@ -2163,19 +2163,19 @@
         <v>3261810</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3240294</v>
+        <v>3241316</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3280630</v>
+        <v>3280387</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9686774042738223</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9622877338130014</v>
+        <v>0.96259106476429</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9742664602430201</v>
+        <v>0.9741944254583844</v>
       </c>
     </row>
     <row r="18">
@@ -2343,19 +2343,19 @@
         <v>20216</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12518</v>
+        <v>13487</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28742</v>
+        <v>29586</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04080799214807927</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02526767926883748</v>
+        <v>0.02722460336419905</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05801800664163871</v>
+        <v>0.05972147556056798</v>
       </c>
     </row>
     <row r="5">
@@ -2372,19 +2372,19 @@
         <v>475182</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>466656</v>
+        <v>465812</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>482880</v>
+        <v>481911</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9591920078519206</v>
+        <v>0.9591920078519207</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9419819933583611</v>
+        <v>0.9402785244394319</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9747323207311626</v>
+        <v>0.972775396635801</v>
       </c>
     </row>
     <row r="6">
@@ -2434,19 +2434,19 @@
         <v>58305</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>48414</v>
+        <v>47238</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>73342</v>
+        <v>72791</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06121085977703306</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05082701938599057</v>
+        <v>0.04959188466767845</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07699721701262961</v>
+        <v>0.07641894290743788</v>
       </c>
     </row>
     <row r="8">
@@ -2463,19 +2463,19 @@
         <v>894224</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>879187</v>
+        <v>879738</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>904115</v>
+        <v>905291</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.938789140222967</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9230027829873703</v>
+        <v>0.923581057092562</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9491729806140095</v>
+        <v>0.9504081153323215</v>
       </c>
     </row>
     <row r="9">
@@ -2525,19 +2525,19 @@
         <v>65046</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>52142</v>
+        <v>53018</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>78913</v>
+        <v>79626</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06215654106337357</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04982625224067753</v>
+        <v>0.05066283860024869</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07540770832862995</v>
+        <v>0.07608904804125668</v>
       </c>
     </row>
     <row r="11">
@@ -2554,19 +2554,19 @@
         <v>981433</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>967566</v>
+        <v>966853</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>994337</v>
+        <v>993461</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9378434589366265</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9245922916713699</v>
+        <v>0.9239109519587433</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9501737477593225</v>
+        <v>0.9493371613997514</v>
       </c>
     </row>
     <row r="12">
@@ -2616,19 +2616,19 @@
         <v>49509</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37782</v>
+        <v>38203</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>61447</v>
+        <v>62510</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05117946775332743</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03905704801418777</v>
+        <v>0.03949199430929923</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06351953708924259</v>
+        <v>0.06461857974415672</v>
       </c>
     </row>
     <row r="14">
@@ -2645,19 +2645,19 @@
         <v>917855</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>905917</v>
+        <v>904854</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>929582</v>
+        <v>929161</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9488205322466726</v>
+        <v>0.9488205322466725</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9364804629107575</v>
+        <v>0.9353814202558431</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9609429519858123</v>
+        <v>0.9605080056907007</v>
       </c>
     </row>
     <row r="15">
@@ -2707,19 +2707,19 @@
         <v>193076</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>170749</v>
+        <v>170488</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>220870</v>
+        <v>220038</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0557737840249299</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04932420756582147</v>
+        <v>0.04924892755112682</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06380255408505654</v>
+        <v>0.06356238116075874</v>
       </c>
     </row>
     <row r="17">
@@ -2736,19 +2736,19 @@
         <v>3268694</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3240900</v>
+        <v>3241732</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3291021</v>
+        <v>3291282</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9442262159750701</v>
+        <v>0.9442262159750702</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9361974459149434</v>
+        <v>0.9364376188392406</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9506757924341784</v>
+        <v>0.9507510724488732</v>
       </c>
     </row>
     <row r="18">
